--- a/data/apd_rcv.xlsx
+++ b/data/apd_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8739346487107212</v>
+        <v>0.8731713447842481</v>
       </c>
       <c r="D2">
-        <v>0.8757689507689508</v>
+        <v>0.01899606356873269</v>
       </c>
       <c r="E2">
-        <v>0.8704991351618483</v>
+        <v>0.8617760617760618</v>
       </c>
       <c r="F2">
-        <v>0.8558139534883722</v>
+        <v>0.02925680658011167</v>
       </c>
       <c r="G2">
-        <v>0.8551915089986156</v>
+        <v>0.850224752771951</v>
+      </c>
+      <c r="H2">
+        <v>0.02799383701769759</v>
+      </c>
+      <c r="I2">
+        <v>0.8491642441860465</v>
+      </c>
+      <c r="J2">
+        <v>0.04516712680155505</v>
+      </c>
+      <c r="K2">
+        <v>0.8429396000824573</v>
+      </c>
+      <c r="L2">
+        <v>0.04108206277159485</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8862135922330097</v>
+        <v>0.8789694176790951</v>
       </c>
       <c r="D3">
-        <v>0.8784671034671035</v>
+        <v>0.01754735420855202</v>
       </c>
       <c r="E3">
-        <v>0.872604398319743</v>
+        <v>0.8665379665379666</v>
       </c>
       <c r="F3">
-        <v>0.865891472868217</v>
+        <v>0.02991401788066698</v>
       </c>
       <c r="G3">
-        <v>0.8744347023534841</v>
+        <v>0.8643492158625513</v>
+      </c>
+      <c r="H3">
+        <v>0.02712078407341961</v>
+      </c>
+      <c r="I3">
+        <v>0.8647165697674419</v>
+      </c>
+      <c r="J3">
+        <v>0.04245675292791819</v>
+      </c>
+      <c r="K3">
+        <v>0.8733560090702948</v>
+      </c>
+      <c r="L3">
+        <v>0.03897908729589632</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.9405198872533667</v>
+        <v>0.9443359865940512</v>
       </c>
       <c r="D4">
-        <v>0.9345208845208844</v>
+        <v>0.01426937811627454</v>
       </c>
       <c r="E4">
-        <v>0.935952557449963</v>
+        <v>0.9376539805111234</v>
       </c>
       <c r="F4">
-        <v>0.9426356589147288</v>
+        <v>0.02514167600603162</v>
       </c>
       <c r="G4">
-        <v>0.9190278418704814</v>
+        <v>0.9420837079212866</v>
+      </c>
+      <c r="H4">
+        <v>0.01771964872633858</v>
+      </c>
+      <c r="I4">
+        <v>0.9479530038759689</v>
+      </c>
+      <c r="J4">
+        <v>0.02133556399830654</v>
+      </c>
+      <c r="K4">
+        <v>0.934126984126984</v>
+      </c>
+      <c r="L4">
+        <v>0.03776084186998975</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7640296481887462</v>
+        <v>0.7825764558022622</v>
       </c>
       <c r="D5">
-        <v>0.7744858494858494</v>
+        <v>0.03975526215377703</v>
       </c>
       <c r="E5">
-        <v>0.7628589078329627</v>
+        <v>0.7723616473616474</v>
       </c>
       <c r="F5">
-        <v>0.7635658914728682</v>
+        <v>0.03645867638459473</v>
       </c>
       <c r="G5">
-        <v>0.7600522996462082</v>
+        <v>0.7660823094595944</v>
+      </c>
+      <c r="H5">
+        <v>0.02985175149280916</v>
+      </c>
+      <c r="I5">
+        <v>0.7846778100775194</v>
+      </c>
+      <c r="J5">
+        <v>0.05411492589390134</v>
+      </c>
+      <c r="K5">
+        <v>0.7709235209235209</v>
+      </c>
+      <c r="L5">
+        <v>0.04109769075720256</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8506837874517175</v>
+        <v>0.8737997486384582</v>
       </c>
       <c r="D6">
-        <v>0.8636113386113387</v>
+        <v>0.02218946677135712</v>
       </c>
       <c r="E6">
-        <v>0.8493970842599456</v>
+        <v>0.8644649751792608</v>
       </c>
       <c r="F6">
-        <v>0.8666666666666666</v>
+        <v>0.03014209697164604</v>
       </c>
       <c r="G6">
-        <v>0.8602522688817105</v>
+        <v>0.8749525521925881</v>
+      </c>
+      <c r="H6">
+        <v>0.02702395223789894</v>
+      </c>
+      <c r="I6">
+        <v>0.8786942829457365</v>
+      </c>
+      <c r="J6">
+        <v>0.03074453846014354</v>
+      </c>
+      <c r="K6">
+        <v>0.8621830550401979</v>
+      </c>
+      <c r="L6">
+        <v>0.02696539004305422</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8228771270487524</v>
+        <v>0.8841600335148723</v>
       </c>
       <c r="D7">
-        <v>0.8123032123032123</v>
+        <v>0.02482985738127715</v>
       </c>
       <c r="E7">
-        <v>0.7698715097603163</v>
+        <v>0.8780336458907888</v>
       </c>
       <c r="F7">
-        <v>0.8193798449612404</v>
+        <v>0.02761690091688106</v>
       </c>
       <c r="G7">
-        <v>0.857262985181767</v>
+        <v>0.8742333433223454</v>
+      </c>
+      <c r="H7">
+        <v>0.02467888942738332</v>
+      </c>
+      <c r="I7">
+        <v>0.8631540697674419</v>
+      </c>
+      <c r="J7">
+        <v>0.03378929774449718</v>
+      </c>
+      <c r="K7">
+        <v>0.8662646876932591</v>
+      </c>
+      <c r="L7">
+        <v>0.02962388607795836</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7310700490656644</v>
+        <v>0.8977503142019272</v>
       </c>
       <c r="D8">
-        <v>0.7271885521885522</v>
+        <v>0.019032466470846</v>
       </c>
       <c r="E8">
-        <v>0.7452335063009639</v>
+        <v>0.8990255561684133</v>
       </c>
       <c r="F8">
-        <v>0.7844961240310078</v>
+        <v>0.02552469984636539</v>
       </c>
       <c r="G8">
-        <v>0.7641696149310363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8972105647771166</v>
-      </c>
-      <c r="D9">
-        <v>0.8966921466921466</v>
-      </c>
-      <c r="E9">
-        <v>0.8887991104521868</v>
-      </c>
-      <c r="F9">
-        <v>0.8875968992248062</v>
-      </c>
-      <c r="G9">
-        <v>0.8835358662769831</v>
+        <v>0.8954599940065927</v>
+      </c>
+      <c r="H8">
+        <v>0.02203756334358568</v>
+      </c>
+      <c r="I8">
+        <v>0.906704215116279</v>
+      </c>
+      <c r="J8">
+        <v>0.02665763885094654</v>
+      </c>
+      <c r="K8">
+        <v>0.8905792620078333</v>
+      </c>
+      <c r="L8">
+        <v>0.02551332518819665</v>
       </c>
     </row>
   </sheetData>
